--- a/NM cheat sheet.xlsx
+++ b/NM cheat sheet.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640440f6a316aaea/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="778" documentId="13_ncr:1_{A32E9089-B744-44A2-AB0B-AED9409EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39CE7AA4-53FE-4FE5-926C-470AC147D4D1}"/>
+  <xr:revisionPtr revIDLastSave="879" documentId="13_ncr:1_{A32E9089-B744-44A2-AB0B-AED9409EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E8A780-B94D-40CF-BA26-828B281994C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{298C84A6-1A4E-47D2-BF1D-10E5868105DD}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="5" xr2:uid="{298C84A6-1A4E-47D2-BF1D-10E5868105DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Oppdrag" sheetId="7" r:id="rId1"/>
-    <sheet name="Fightclub" sheetId="4" r:id="rId2"/>
-    <sheet name="Bank" sheetId="6" r:id="rId3"/>
-    <sheet name="Livvak" sheetId="3" r:id="rId4"/>
-    <sheet name="The underground" sheetId="1" r:id="rId5"/>
-    <sheet name="Hasjplantasje" sheetId="5" r:id="rId6"/>
+    <sheet name="Fly" sheetId="8" r:id="rId2"/>
+    <sheet name="Fightclub" sheetId="4" r:id="rId3"/>
+    <sheet name="Bank" sheetId="6" r:id="rId4"/>
+    <sheet name="Livvak" sheetId="3" r:id="rId5"/>
+    <sheet name="The underground" sheetId="1" r:id="rId6"/>
+    <sheet name="Hasjplantasje" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="144">
   <si>
     <t>The underground</t>
   </si>
@@ -482,6 +483,127 @@
   <si>
     <t>Her skal du frakte 8 Mercedes Benz SL 500 fra Helsinki til Moskva. Det er ett par ting som er lurt å huske på her. Alle bilene må være fra Helsinki. Du må sende alle bilene fra Helsinki, det går ikke å kjøpe en Mercedes fra Helsinki i Oslo og sende den direkte til Moskva, den må innom Helsinki igjen først. Om du velger å kjøpe Mercedes fra Helsinki i en annen by enn Helsinki, husk at politiet kan finne bilen når den kommer til Helsinki igjen, så du må derfor være rask til å sende bilen videre til Moskva. Når du stjeler bilene selv, er det best å velge "Stjel fra en offentligparkeringsplass"(Nederste valget). Det er det valget du har best mulighet for å få disse bilene på. Om du skal ta oppdragene på nytt igjen etter du har vært gjennom alle, kan det være lurt å holde seg i Helsinki når du har mulighet for det og samle opp noen Mercedes Benz til neste gang du kommer til dette oppdraget.</t>
   </si>
+  <si>
+    <t>Paul Castellano</t>
+  </si>
+  <si>
+    <t>Aniello Dellacroce</t>
+  </si>
+  <si>
+    <t>Anthony Spero</t>
+  </si>
+  <si>
+    <t>Don Gotti</t>
+  </si>
+  <si>
+    <t>Don Pedrino</t>
+  </si>
+  <si>
+    <t>Don Luciano</t>
+  </si>
+  <si>
+    <t>Cessna Skyhawk SP</t>
+  </si>
+  <si>
+    <r>
+      <t>70</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> min</t>
+    </r>
+  </si>
+  <si>
+    <t>Piper PA34 Seneca 2</t>
+  </si>
+  <si>
+    <r>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> min</t>
+    </r>
+  </si>
+  <si>
+    <t>Bombardier Learjet 45</t>
+  </si>
+  <si>
+    <r>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> min</t>
+    </r>
+  </si>
+  <si>
+    <t>Boeing 737-300</t>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> min</t>
+    </r>
+  </si>
+  <si>
+    <t>Boeing 787</t>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> min</t>
+    </r>
+  </si>
+  <si>
+    <t>Billett pris</t>
+  </si>
+  <si>
+    <t>Drivstoff forbruk</t>
+  </si>
+  <si>
+    <t>Drivstoff pris</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Ventetid</t>
+  </si>
+  <si>
+    <t>Km pris</t>
+  </si>
 </sst>
 </file>
 
@@ -496,7 +618,7 @@
     <numFmt numFmtId="166" formatCode="_-&quot;kr&quot;\ * #,##0_-;\-&quot;kr&quot;\ * #,##0_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0\ %"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +666,12 @@
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -604,7 +732,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -623,12 +751,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -640,9 +762,6 @@
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -667,23 +786,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Prosent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1030,266 +1150,482 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD6F01-2EBA-42C1-B74A-3E08B62788E4}">
-  <dimension ref="B3:B80"/>
+  <dimension ref="B3:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="114.5703125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="114.5703125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
+      <c r="B5" s="32"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="31" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="32" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+      <c r="B12" s="32"/>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="31" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="31" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="32"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="31" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="54" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+    <row r="25" spans="2:5" ht="54" x14ac:dyDescent="0.25">
+      <c r="B25" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="31" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
+      <c r="D32" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="32"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="31" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="31" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" spans="2:2" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="35" t="s">
+      <c r="D38" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="B39" s="32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="35"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="34" t="s">
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="34" t="s">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="31" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="35" t="s">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="35" t="s">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="32" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="35" t="s">
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+      <c r="F48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="35" t="s">
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="35" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="36"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="35" t="s">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="32" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="35" t="s">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="35" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="35"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="34" t="s">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="32"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="34" t="s">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="31" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="36"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="35" t="s">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="35"/>
+      <c r="B69" s="32"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="117" x14ac:dyDescent="0.25">
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="35"/>
+      <c r="B76" s="32"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="34" t="s">
+      <c r="B80" s="31" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B1EB0C9-2719-4A0A-AC83-CE2510BBA0A3}">
+          <x14:formula1>
+            <xm:f>'The underground'!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D32:E32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{04869E4C-888B-4E73-8DA9-1BA5E18B6EDA}">
+          <x14:formula1>
+            <xm:f>'The underground'!$C$3:$H$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D39:G39 D49:F49</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F578C373-1A20-45DD-BFEB-1FF48F1543FC}">
+  <dimension ref="B2:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="10">
+        <v>4000000</v>
+      </c>
+      <c r="E3" s="10">
+        <v>750</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10">
+        <v>50</v>
+      </c>
+      <c r="H3" s="10">
+        <f>G3*F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="10">
+        <v>7000000</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10">
+        <v>50</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H7" si="0">G4*F4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10000000</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10">
+        <v>50</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="10">
+        <v>15000000</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
+        <v>50</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="10">
+        <v>150000000</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
+        <v>50</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://nordicmafia.org/index.php?p=buyplane&amp;dobuy&amp;id=2" xr:uid="{E8745083-3CFC-4608-953B-4468908567D5}"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://nordicmafia.org/index.php?p=buyplane&amp;dobuy&amp;id=3" xr:uid="{46B966F4-5C5E-4FC5-BD48-0B7DD3B610EA}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://nordicmafia.org/index.php?p=buyplane&amp;dobuy&amp;id=4" xr:uid="{40908372-3422-474F-BBCE-B1D302FA2923}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://nordicmafia.org/index.php?p=buyplane&amp;dobuy&amp;id=5" xr:uid="{9F8744DF-EF86-4FBE-A600-5DB6BCC3F100}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CEF89E-5197-4D27-8906-78C5A18C48DA}">
   <dimension ref="B2:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1654,7 @@
       <c r="D3" s="9">
         <v>11</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <f>C3/D3</f>
         <v>1.2727272727272727</v>
       </c>
@@ -1333,7 +1669,7 @@
       <c r="D4" s="9">
         <v>5</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f t="shared" ref="E4:E5" si="0">C4/D4</f>
         <v>1.6</v>
       </c>
@@ -1348,7 +1684,7 @@
       <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1370,7 +1706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1180DC56-065E-4EA0-8237-9D87B33CBB94}">
   <dimension ref="B2:D12"/>
   <sheetViews>
@@ -1396,23 +1732,23 @@
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="20">
+      <c r="B3" s="18">
         <v>100000</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>0.02</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="26">
         <f>B3*C3+B3</f>
         <v>102000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
@@ -1426,13 +1762,13 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>11111.11</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="28">
         <v>0.1</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="26">
         <f>B9-(C9*B9)</f>
         <v>9999.9989999999998</v>
       </c>
@@ -1449,14 +1785,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <f>D12/(1-C12)</f>
         <v>11111.111111111111</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="28">
         <v>0.1</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>10000</v>
       </c>
     </row>
@@ -1468,7 +1804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DA469-7C52-4389-A1D1-D21EA74916DC}">
   <dimension ref="B2:H30"/>
   <sheetViews>
@@ -1485,19 +1821,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1505,15 +1841,15 @@
       <c r="B3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <f>F3*1500</f>
         <v>1500</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="12">
         <f>F3*450</f>
         <v>450</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <f t="shared" ref="E3:E23" si="0">IF(F3=0,,C3/D3)</f>
         <v>3.3333333333333335</v>
       </c>
@@ -1527,15 +1863,15 @@
       <c r="B4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <f>F4*2000</f>
         <v>2000</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="12">
         <f>F4*540</f>
         <v>540</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>3.7037037037037037</v>
       </c>
@@ -1549,15 +1885,15 @@
       <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <f>F5*2500</f>
         <v>2500</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="12">
         <f>F5*650</f>
         <v>650</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
@@ -1571,15 +1907,15 @@
       <c r="B6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f>F6*3000</f>
         <v>3000</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f>F6*780</f>
         <v>780</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
@@ -1593,15 +1929,15 @@
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <f>F7*3500</f>
         <v>3500</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <f>F7*910</f>
         <v>910</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
@@ -1615,15 +1951,15 @@
       <c r="B8" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <f>F8*4000</f>
         <v>4000</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <f>F8*960</f>
         <v>960</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
@@ -1637,15 +1973,15 @@
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <f>F9*5000</f>
         <v>5000</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <f>F9*1150</f>
         <v>1150</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>4.3478260869565215</v>
       </c>
@@ -1659,15 +1995,15 @@
       <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <f>F10*6000</f>
         <v>6000</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <f>F10*1320</f>
         <v>1320</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>4.5454545454545459</v>
       </c>
@@ -1681,15 +2017,15 @@
       <c r="B11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <f>F11*7000</f>
         <v>7000</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <f>F11*1470</f>
         <v>1470</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>4.7619047619047619</v>
       </c>
@@ -1703,15 +2039,15 @@
       <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <f>F12*8000</f>
         <v>8000</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <f>F12*1600</f>
         <v>1600</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1725,15 +2061,15 @@
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <f>F13*9000</f>
         <v>9000</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <f>F13*1800</f>
         <v>1800</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1747,15 +2083,15 @@
       <c r="B14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <f>F14*11000</f>
         <v>11000</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <f>F14*1980</f>
         <v>1980</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
@@ -1769,15 +2105,15 @@
       <c r="B15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <f>F15*12000</f>
         <v>12000</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <f>F15*2040</f>
         <v>2040</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
@@ -1791,15 +2127,15 @@
       <c r="B16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <f>F16*13000</f>
         <v>13000</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="12">
         <f>F16*2210</f>
         <v>2210</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
@@ -1813,15 +2149,15 @@
       <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <f>F17*14500</f>
         <v>14500</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <f>F17*2465</f>
         <v>2465</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
@@ -1835,15 +2171,15 @@
       <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <f>F18*16000</f>
         <v>16000</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <f>F18*2720</f>
         <v>2720</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
@@ -1857,15 +2193,15 @@
       <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <f>F19*17000</f>
         <v>17000</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <f>F19*2890</f>
         <v>2890</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
@@ -1879,15 +2215,15 @@
       <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <f>F20*19000</f>
         <v>19000</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <f>F20*3040</f>
         <v>3040</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
@@ -1901,15 +2237,15 @@
       <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <f>F21*22000</f>
         <v>22000</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <f>F21*3520</f>
         <v>3520</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
@@ -1923,15 +2259,15 @@
       <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <f>F22*25000</f>
         <v>25000</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <f>F22*4000</f>
         <v>4000</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="13">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
@@ -1945,15 +2281,15 @@
       <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <f>F23*50000</f>
         <v>50000</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <f>F23*8000</f>
         <v>8000</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="13">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
@@ -1967,15 +2303,15 @@
       <c r="B24" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <f>F24*80000</f>
         <v>80000</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <f>F24*12000</f>
         <v>12000</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="13">
         <f>IF(F24=0,,C24/D24)</f>
         <v>6.666666666666667</v>
       </c>
@@ -1989,15 +2325,15 @@
       <c r="B25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <f>F25*120000</f>
         <v>120000</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <f>F25*18000</f>
         <v>18000</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="13">
         <f t="shared" ref="E25:E28" si="1">IF(F25=0,,C25/D25)</f>
         <v>6.666666666666667</v>
       </c>
@@ -2011,15 +2347,15 @@
       <c r="B26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="12">
         <f>F26*220000</f>
         <v>0</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <f>F26*33000</f>
         <v>0</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2031,15 +2367,15 @@
       <c r="B27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="12">
         <f>F27*300000</f>
         <v>0</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <f>F27*42000</f>
         <v>0</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2051,15 +2387,15 @@
       <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <f>F28*480000</f>
         <v>0</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <f>F28*67200</f>
         <v>0</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2069,24 +2405,24 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="15">
         <f>SUM(C3:C28)</f>
         <v>451000</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="15">
         <f>SUM(D3:D28)</f>
         <v>74495</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="16">
         <f t="shared" ref="E30" si="2">C30/D30</f>
         <v>6.0540975904423115</v>
       </c>
@@ -2097,12 +2433,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51511C44-A07E-40B0-8FF4-E04CF1E3AF87}">
   <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,15 +2449,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
@@ -2151,15 +2487,15 @@
       <c r="G3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="29" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="9" t="str" cm="1">
         <f t="array" ref="I3">INDEX($C$3:$H$3,,MATCH(B14,C3:H3,0))</f>
-        <v>Oslo</v>
-      </c>
-      <c r="J3" s="9" t="str">
-        <f t="array" ref="J3">INDEX($C$3:$G$3,,MATCH(C14,C3:G3,0))</f>
+        <v>København</v>
+      </c>
+      <c r="J3" s="9" t="str" cm="1">
+        <f t="array" ref="J3">INDEX($C$3:$H$3,,MATCH(C14,C3:H3,0))</f>
         <v>Helsinki</v>
       </c>
       <c r="K3" s="9"/>
@@ -2177,22 +2513,26 @@
       <c r="E4" s="10">
         <v>7800</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="33">
+      <c r="F4" s="10">
+        <v>5500</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5390</v>
+      </c>
+      <c r="H4" s="30">
         <v>5000</v>
       </c>
       <c r="I4" s="10" cm="1">
         <f t="array" ref="I4:I11">INDEX(C4:H11,,MATCH(I3,C3:H3,0))</f>
-        <v>5000</v>
+        <v>5500</v>
       </c>
       <c r="J4" s="10" cm="1">
-        <f t="array" ref="J4:J11">INDEX(C4:E11,,MATCH(J3,C3:E3,0))</f>
+        <f t="array" ref="J4:J11">INDEX(C4:H11,,MATCH(J3,C3:H3,0))</f>
         <v>7800</v>
       </c>
       <c r="K4" s="10">
-        <f>J4-I4</f>
-        <v>2800</v>
+        <f t="shared" ref="K4:K11" si="0">J4-I4</f>
+        <v>2300</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -2208,20 +2548,24 @@
       <c r="E5" s="10">
         <v>41900</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="33">
+      <c r="F5" s="10">
+        <v>44000</v>
+      </c>
+      <c r="G5" s="10">
+        <v>42000</v>
+      </c>
+      <c r="H5" s="30">
         <v>41600</v>
       </c>
       <c r="I5" s="10">
-        <v>41600</v>
+        <v>44000</v>
       </c>
       <c r="J5" s="10">
         <v>41900</v>
       </c>
       <c r="K5" s="10">
-        <f>J5-I5</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>-2100</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2237,20 +2581,24 @@
       <c r="E6" s="10">
         <v>7190</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="33">
+      <c r="F6" s="10">
+        <v>6450</v>
+      </c>
+      <c r="G6" s="10">
+        <v>7300</v>
+      </c>
+      <c r="H6" s="30">
         <v>7150</v>
       </c>
       <c r="I6" s="10">
-        <v>7150</v>
+        <v>6450</v>
       </c>
       <c r="J6" s="10">
         <v>7190</v>
       </c>
       <c r="K6" s="10">
-        <f>J6-I6</f>
-        <v>40</v>
+        <f t="shared" si="0"/>
+        <v>740</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
@@ -2266,20 +2614,24 @@
       <c r="E7" s="10">
         <v>21700</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="33">
+      <c r="F7" s="10">
+        <v>25800</v>
+      </c>
+      <c r="G7" s="10">
+        <v>23400</v>
+      </c>
+      <c r="H7" s="30">
         <v>21250</v>
       </c>
       <c r="I7" s="10">
-        <v>21250</v>
+        <v>25800</v>
       </c>
       <c r="J7" s="10">
         <v>21700</v>
       </c>
       <c r="K7" s="10">
-        <f>J7-I7</f>
-        <v>450</v>
+        <f t="shared" si="0"/>
+        <v>-4100</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
@@ -2295,20 +2647,24 @@
       <c r="E8" s="10">
         <v>73700</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="33">
+      <c r="F8" s="10">
+        <v>70700</v>
+      </c>
+      <c r="G8" s="10">
+        <v>77500</v>
+      </c>
+      <c r="H8" s="30">
         <v>78900</v>
       </c>
       <c r="I8" s="10">
-        <v>78900</v>
+        <v>70700</v>
       </c>
       <c r="J8" s="10">
         <v>73700</v>
       </c>
       <c r="K8" s="10">
-        <f>J8-I8</f>
-        <v>-5200</v>
+        <f t="shared" si="0"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2324,20 +2680,24 @@
       <c r="E9" s="10">
         <v>18960</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="33">
+      <c r="F9" s="10">
+        <v>19000</v>
+      </c>
+      <c r="G9" s="10">
+        <v>16700</v>
+      </c>
+      <c r="H9" s="30">
         <v>15300</v>
       </c>
       <c r="I9" s="10">
-        <v>15300</v>
+        <v>19000</v>
       </c>
       <c r="J9" s="10">
         <v>18960</v>
       </c>
       <c r="K9" s="10">
-        <f>J9-I9</f>
-        <v>3660</v>
+        <f t="shared" si="0"/>
+        <v>-40</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -2353,20 +2713,24 @@
       <c r="E10" s="10">
         <v>9800</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="33">
+      <c r="F10" s="10">
+        <v>10700</v>
+      </c>
+      <c r="G10" s="10">
+        <v>11000</v>
+      </c>
+      <c r="H10" s="30">
         <v>11300</v>
       </c>
       <c r="I10" s="10">
-        <v>11300</v>
+        <v>10700</v>
       </c>
       <c r="J10" s="10">
         <v>9800</v>
       </c>
       <c r="K10" s="10">
-        <f>J10-I10</f>
-        <v>-1500</v>
+        <f t="shared" si="0"/>
+        <v>-900</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -2382,20 +2746,24 @@
       <c r="E11" s="10">
         <v>33500</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="33">
+      <c r="F11" s="10">
+        <v>33900</v>
+      </c>
+      <c r="G11" s="10">
+        <v>35000</v>
+      </c>
+      <c r="H11" s="30">
         <v>36700</v>
       </c>
       <c r="I11" s="10">
-        <v>36700</v>
+        <v>33900</v>
       </c>
       <c r="J11" s="10">
         <v>33500</v>
       </c>
       <c r="K11" s="10">
-        <f>J11-I11</f>
-        <v>-3200</v>
+        <f t="shared" si="0"/>
+        <v>-400</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2420,25 +2788,25 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="9" t="str" cm="1">
         <f t="array" ref="D14">INDEX($B$4:$B$11, MATCH(MAX(INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(C14,C3:H3,0)),C3:H3,0))-INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(B14,C3:H3,0)),C3:H3,0))), INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(C14,C3:H3,0)),C3:H3,0))-INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(B14,C3:H3,0)),C3:H3,0)), 0))</f>
-        <v>Sofa</v>
+        <v>Passport</v>
       </c>
       <c r="E14" s="10">
         <f>MAX(K4:K11)</f>
-        <v>3660</v>
+        <v>3000</v>
       </c>
       <c r="F14" s="11">
         <v>15</v>
       </c>
       <c r="G14" s="10">
         <f>E14*F14</f>
-        <v>54900</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -2460,7 +2828,7 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="K4:K11">
-    <cfRule type="top10" dxfId="1" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14 B14" xr:uid="{A297D7B2-22A2-41EE-9E30-CAC74FAD283C}">
@@ -2474,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4482B1-C188-486E-A804-43B4FA527C22}">
   <dimension ref="B2:O57"/>
   <sheetViews>
@@ -2504,39 +2872,39 @@
       <c r="E2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="25"/>
+      <c r="K2" s="37"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
         <f>(C3*C5)+(D3*D5)</f>
         <v>7870000000000</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="17">
         <f>D3*2</f>
         <v>200000000</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="17">
         <f>ROUNDDOWN(E3/1.8091954/(43500),0)</f>
         <v>100000000</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>7870000000000</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="24">
         <f>78700/2310</f>
         <v>34.069264069264072</v>
       </c>
-      <c r="J3" s="27">
+      <c r="J3" s="24">
         <f>(4000000-78700)/2310</f>
         <v>1697.5324675324675</v>
       </c>
@@ -2556,10 +2924,10 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>17600</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>43500</v>
       </c>
       <c r="O5" s="4"/>
@@ -2587,11 +2955,11 @@
         <f>(C9*C11)+(D9*D11)</f>
         <v>7870000</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="17">
         <f>D9*2</f>
         <v>200</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>100</v>
       </c>
       <c r="O9" s="4"/>
@@ -2606,10 +2974,10 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>17600</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>43500</v>
       </c>
       <c r="O11" s="3"/>
@@ -2633,15 +3001,15 @@
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <f>C15*105</f>
         <v>462000</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="21">
         <f>D15*22</f>
         <v>4400</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <v>200</v>
       </c>
       <c r="O15" s="3"/>

--- a/NM cheat sheet.xlsx
+++ b/NM cheat sheet.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640440f6a316aaea/Dokumenter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="879" documentId="13_ncr:1_{A32E9089-B744-44A2-AB0B-AED9409EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31E8A780-B94D-40CF-BA26-828B281994C8}"/>
+  <xr:revisionPtr revIDLastSave="1024" documentId="13_ncr:1_{A32E9089-B744-44A2-AB0B-AED9409EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86887772-47B3-42CC-8ABC-D1CC3E7BA70C}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" activeTab="5" xr2:uid="{298C84A6-1A4E-47D2-BF1D-10E5868105DD}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12645" xr2:uid="{298C84A6-1A4E-47D2-BF1D-10E5868105DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Oppdrag" sheetId="7" r:id="rId1"/>
     <sheet name="Fly" sheetId="8" r:id="rId2"/>
-    <sheet name="Fightclub" sheetId="4" r:id="rId3"/>
-    <sheet name="Bank" sheetId="6" r:id="rId4"/>
-    <sheet name="Livvak" sheetId="3" r:id="rId5"/>
-    <sheet name="The underground" sheetId="1" r:id="rId6"/>
-    <sheet name="Hasjplantasje" sheetId="5" r:id="rId7"/>
+    <sheet name="OC" sheetId="9" r:id="rId3"/>
+    <sheet name="Fightclub" sheetId="4" r:id="rId4"/>
+    <sheet name="Bank" sheetId="6" r:id="rId5"/>
+    <sheet name="Livvak" sheetId="3" r:id="rId6"/>
+    <sheet name="The underground" sheetId="1" r:id="rId7"/>
+    <sheet name="Hasjplantasje" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="147">
   <si>
     <t>The underground</t>
   </si>
@@ -590,9 +591,6 @@
     <t>Billett pris</t>
   </si>
   <si>
-    <t>Drivstoff forbruk</t>
-  </si>
-  <si>
     <t>Drivstoff pris</t>
   </si>
   <si>
@@ -603,13 +601,25 @@
   </si>
   <si>
     <t>Km pris</t>
+  </si>
+  <si>
+    <t>Drivstoff kappasitet</t>
+  </si>
+  <si>
+    <t>Drivstoff forbruk l/km</t>
+  </si>
+  <si>
+    <t>Avkastning</t>
+  </si>
+  <si>
+    <t>kuler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;kr&quot;\ * #,##0.00_-;\-&quot;kr&quot;\ * #,##0.00_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -617,6 +627,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;kr&quot;\ * #,##0_-;\-&quot;kr&quot;\ * #,##0_-;_-&quot;kr&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="0.0\ %"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00000000000000000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -732,18 +743,12 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -786,6 +791,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,8 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1152,13 +1162,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDD6F01-2EBA-42C1-B74A-3E08B62788E4}">
   <dimension ref="B3:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="114.5703125" style="34" customWidth="1"/>
+    <col min="2" max="2" width="114.5703125" style="32" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1166,79 +1176,79 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
+      <c r="B5" s="30"/>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="B12" s="30"/>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="30"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="54" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="30"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>92</v>
       </c>
       <c r="D31" t="s">
@@ -1249,26 +1259,26 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="38" t="s">
+      <c r="D32" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="38" t="s">
-        <v>2</v>
+      <c r="E32" s="33" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
+      <c r="B33" s="30"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>95</v>
       </c>
       <c r="D38" t="s">
@@ -1285,39 +1295,47 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
+      <c r="D39" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="33" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
+      <c r="B40" s="30"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="30" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="30" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="30" t="s">
         <v>101</v>
       </c>
       <c r="D48" t="s">
@@ -1331,115 +1349,115 @@
       </c>
     </row>
     <row r="49" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
+      <c r="B52" s="31"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="30" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="30" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="30" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="32"/>
+      <c r="B57" s="30"/>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="29" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="29" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
+      <c r="B63" s="31"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="30" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="30" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="32"/>
+      <c r="B69" s="30"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="75" spans="2:2" ht="117" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="32"/>
+      <c r="B76" s="30"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="29" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="29" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1468,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F578C373-1A20-45DD-BFEB-1FF48F1543FC}">
-  <dimension ref="B2:H7"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,134 +1498,147 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="39" t="s">
+      <c r="I2" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="8">
         <v>4000000</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>750</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10">
+      <c r="F3" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G3" s="8">
         <v>50</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <f>G3*F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+        <v>114.99999999999999</v>
+      </c>
+      <c r="I3" s="15">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>7000000</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10">
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8">
         <v>50</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H7" si="0">G4*F4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>10000000</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10">
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8">
         <v>50</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>15000000</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10">
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8">
         <v>50</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>150000000</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10">
+      <c r="E7" s="8"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8">
         <v>50</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="I7" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1621,6 +1652,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9945702F-15C1-4F9C-8D8E-1BF81712FE0D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CEF89E-5197-4D27-8906-78C5A18C48DA}">
   <dimension ref="B2:K12"/>
   <sheetViews>
@@ -1631,60 +1674,60 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>14</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>11</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <f>C3/D3</f>
         <v>1.2727272727272727</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E5" si="0">C4/D4</f>
         <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
@@ -1706,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1180DC56-065E-4EA0-8237-9D87B33CBB94}">
   <dimension ref="B2:D12"/>
   <sheetViews>
@@ -1721,78 +1764,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>100000</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="23">
         <v>0.02</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="24">
         <f>B3*C3+B3</f>
         <v>102000</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="27">
+      <c r="B9" s="25">
         <v>11111.11</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>0.1</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="24">
         <f>B9-(C9*B9)</f>
         <v>9999.9989999999998</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <f>D12/(1-C12)</f>
         <v>11111.111111111111</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="26">
         <v>0.1</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="25">
         <v>10000</v>
       </c>
     </row>
@@ -1804,12 +1847,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DA469-7C52-4389-A1D1-D21EA74916DC}">
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,624 +1864,636 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <f>F3*1500</f>
         <v>1500</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <f>F3*450</f>
         <v>450</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="11">
         <f t="shared" ref="E3:E23" si="0">IF(F3=0,,C3/D3)</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>1</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <f>F4*2000</f>
         <v>2000</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <f>F4*540</f>
         <v>540</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f t="shared" si="0"/>
         <v>3.7037037037037037</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <f>F5*2500</f>
         <v>2500</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <f>F5*650</f>
         <v>650</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>1</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <f>F6*3000</f>
         <v>3000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <f>F6*780</f>
         <v>780</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="9">
         <v>1</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <f>F7*3500</f>
         <v>3500</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <f>F7*910</f>
         <v>910</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f t="shared" si="0"/>
         <v>3.8461538461538463</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f>F8*4000</f>
         <v>4000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <f>F8*960</f>
         <v>960</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f t="shared" si="0"/>
         <v>4.166666666666667</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>1</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <f>F9*5000</f>
         <v>5000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <f>F9*1150</f>
         <v>1150</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="11">
         <f t="shared" si="0"/>
         <v>4.3478260869565215</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>1</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <f>F10*6000</f>
         <v>6000</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <f>F10*1320</f>
         <v>1320</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <f t="shared" si="0"/>
         <v>4.5454545454545459</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>1</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <f>F11*7000</f>
         <v>7000</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <f>F11*1470</f>
         <v>1470</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="11">
         <f t="shared" si="0"/>
         <v>4.7619047619047619</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <f>F12*8000</f>
         <v>8000</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <f>F12*1600</f>
         <v>1600</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <f>F13*9000</f>
         <v>9000</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <f>F13*1800</f>
         <v>1800</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <f>F14*11000</f>
         <v>11000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <f>F14*1980</f>
         <v>1980</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="11">
         <f t="shared" si="0"/>
         <v>5.5555555555555554</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>1</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <f>F15*12000</f>
         <v>12000</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <f>F15*2040</f>
         <v>2040</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <f>F16*13000</f>
         <v>13000</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <f>F16*2210</f>
         <v>2210</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>1</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <f>F17*14500</f>
         <v>14500</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <f>F17*2465</f>
         <v>2465</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="11">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>1</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <f>F18*16000</f>
         <v>16000</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <f>F18*2720</f>
         <v>2720</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="9">
         <v>1</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <f>F19*17000</f>
         <v>17000</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <f>F19*2890</f>
         <v>2890</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <f t="shared" si="0"/>
         <v>5.882352941176471</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="9">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <f>F20*19000</f>
         <v>19000</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <f>F20*3040</f>
         <v>3040</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="9">
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <f>F21*22000</f>
         <v>22000</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <f>F21*3520</f>
         <v>3520</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <f>F22*25000</f>
         <v>25000</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <f>F22*4000</f>
         <v>4000</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <f>F23*50000</f>
         <v>50000</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <f>F23*8000</f>
         <v>8000</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="11">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <f>F24*80000</f>
         <v>80000</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <f>F24*12000</f>
         <v>12000</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="11">
         <f>IF(F24=0,,C24/D24)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="9">
         <v>1</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="10">
         <f>F25*120000</f>
         <v>120000</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <f>F25*18000</f>
         <v>18000</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <f t="shared" ref="E25:E28" si="1">IF(F25=0,,C25/D25)</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="9">
         <v>1</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <f>F26*220000</f>
         <v>0</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <f>F26*33000</f>
         <v>0</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <f>F27*300000</f>
         <v>0</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <f>F27*42000</f>
         <v>0</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <f>F28*480000</f>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <f>F28*67200</f>
         <v>0</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="15">
+      <c r="C30" s="13">
         <f>SUM(C3:C28)</f>
         <v>451000</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D30" s="13">
         <f>SUM(D3:D28)</f>
         <v>74495</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <f t="shared" ref="E30" si="2">C30/D30</f>
         <v>6.0540975904423115</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="37">
+        <f>D30/C30</f>
+        <v>0.16517738359201775</v>
+      </c>
+      <c r="F31" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51511C44-A07E-40B0-8FF4-E04CF1E3AF87}">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,380 +2503,396 @@
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="9" t="str" cm="1">
+      <c r="I3" s="7" t="str" cm="1">
         <f t="array" ref="I3">INDEX($C$3:$H$3,,MATCH(B14,C3:H3,0))</f>
-        <v>København</v>
-      </c>
-      <c r="J3" s="9" t="str" cm="1">
+        <v>Moskva</v>
+      </c>
+      <c r="J3" s="7" t="str" cm="1">
         <f t="array" ref="J3">INDEX($C$3:$H$3,,MATCH(C14,C3:H3,0))</f>
-        <v>Helsinki</v>
-      </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+        <v>London</v>
+      </c>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>6200</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="8">
         <v>5400</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>7800</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="8">
         <v>5500</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>5390</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="28">
         <v>5000</v>
       </c>
-      <c r="I4" s="10" cm="1">
+      <c r="I4" s="8" cm="1">
         <f t="array" ref="I4:I11">INDEX(C4:H11,,MATCH(I3,C3:H3,0))</f>
-        <v>5500</v>
-      </c>
-      <c r="J4" s="10" cm="1">
+        <v>5390</v>
+      </c>
+      <c r="J4" s="8" cm="1">
         <f t="array" ref="J4:J11">INDEX(C4:H11,,MATCH(J3,C3:H3,0))</f>
-        <v>7800</v>
-      </c>
-      <c r="K4" s="10">
+        <v>6200</v>
+      </c>
+      <c r="K4" s="8">
         <f t="shared" ref="K4:K11" si="0">J4-I4</f>
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>43000</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="8">
         <v>48500</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>41900</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="8">
         <v>44000</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>42000</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="28">
         <v>41600</v>
       </c>
-      <c r="I5" s="10">
-        <v>44000</v>
-      </c>
-      <c r="J5" s="10">
-        <v>41900</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="I5" s="8">
+        <v>42000</v>
+      </c>
+      <c r="J5" s="8">
+        <v>43000</v>
+      </c>
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
-        <v>-2100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>7640</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="8">
         <v>6550</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>7190</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="8">
         <v>6450</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <v>7300</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="28">
         <v>7150</v>
       </c>
-      <c r="I6" s="10">
-        <v>6450</v>
-      </c>
-      <c r="J6" s="10">
-        <v>7190</v>
-      </c>
-      <c r="K6" s="10">
+      <c r="I6" s="8">
+        <v>7300</v>
+      </c>
+      <c r="J6" s="8">
+        <v>7640</v>
+      </c>
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>21950</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>20800</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>21700</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>25800</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>23400</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="28">
         <v>21250</v>
       </c>
-      <c r="I7" s="10">
-        <v>25800</v>
-      </c>
-      <c r="J7" s="10">
-        <v>21700</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="I7" s="8">
+        <v>23400</v>
+      </c>
+      <c r="J7" s="8">
+        <v>21950</v>
+      </c>
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
-        <v>-4100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+        <v>-1450</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>71500</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="8">
         <v>74800</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>73700</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>70700</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <v>77500</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="28">
         <v>78900</v>
       </c>
-      <c r="I8" s="10">
-        <v>70700</v>
-      </c>
-      <c r="J8" s="10">
-        <v>73700</v>
-      </c>
-      <c r="K8" s="10">
+      <c r="I8" s="8">
+        <v>77500</v>
+      </c>
+      <c r="J8" s="8">
+        <v>71500</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>-6000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8">
+        <v>17000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>16900</v>
+      </c>
+      <c r="E9" s="8">
+        <v>18960</v>
+      </c>
+      <c r="F9" s="8">
+        <v>19000</v>
+      </c>
+      <c r="G9" s="8">
+        <v>16700</v>
+      </c>
+      <c r="H9" s="28">
+        <v>15300</v>
+      </c>
+      <c r="I9" s="8">
+        <v>16700</v>
+      </c>
+      <c r="J9" s="8">
+        <v>17000</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>8400</v>
+      </c>
+      <c r="D10" s="8">
+        <v>9600</v>
+      </c>
+      <c r="E10" s="8">
+        <v>9800</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10700</v>
+      </c>
+      <c r="G10" s="8">
+        <v>11000</v>
+      </c>
+      <c r="H10" s="28">
+        <v>11300</v>
+      </c>
+      <c r="I10" s="8">
+        <v>11000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>8400</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>-2600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8">
+        <v>38000</v>
+      </c>
+      <c r="D11" s="8">
+        <v>35900</v>
+      </c>
+      <c r="E11" s="8">
+        <v>33500</v>
+      </c>
+      <c r="F11" s="8">
+        <v>33900</v>
+      </c>
+      <c r="G11" s="8">
+        <v>35000</v>
+      </c>
+      <c r="H11" s="28">
+        <v>36700</v>
+      </c>
+      <c r="I11" s="8">
+        <v>35000</v>
+      </c>
+      <c r="J11" s="8">
+        <v>38000</v>
+      </c>
+      <c r="K11" s="8">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="10">
-        <v>17000</v>
-      </c>
-      <c r="D9" s="10">
-        <v>16900</v>
-      </c>
-      <c r="E9" s="10">
-        <v>18960</v>
-      </c>
-      <c r="F9" s="10">
-        <v>19000</v>
-      </c>
-      <c r="G9" s="10">
-        <v>16700</v>
-      </c>
-      <c r="H9" s="30">
-        <v>15300</v>
-      </c>
-      <c r="I9" s="10">
-        <v>19000</v>
-      </c>
-      <c r="J9" s="10">
-        <v>18960</v>
-      </c>
-      <c r="K9" s="10">
-        <f t="shared" si="0"/>
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="10">
-        <v>8400</v>
-      </c>
-      <c r="D10" s="10">
-        <v>9600</v>
-      </c>
-      <c r="E10" s="10">
-        <v>9800</v>
-      </c>
-      <c r="F10" s="10">
-        <v>10700</v>
-      </c>
-      <c r="G10" s="10">
-        <v>11000</v>
-      </c>
-      <c r="H10" s="30">
-        <v>11300</v>
-      </c>
-      <c r="I10" s="10">
-        <v>10700</v>
-      </c>
-      <c r="J10" s="10">
-        <v>9800</v>
-      </c>
-      <c r="K10" s="10">
-        <f t="shared" si="0"/>
-        <v>-900</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10">
-        <v>38000</v>
-      </c>
-      <c r="D11" s="10">
-        <v>35900</v>
-      </c>
-      <c r="E11" s="10">
-        <v>33500</v>
-      </c>
-      <c r="F11" s="10">
-        <v>33900</v>
-      </c>
-      <c r="G11" s="10">
-        <v>35000</v>
-      </c>
-      <c r="H11" s="30">
-        <v>36700</v>
-      </c>
-      <c r="I11" s="10">
-        <v>33900</v>
-      </c>
-      <c r="J11" s="10">
-        <v>33500</v>
-      </c>
-      <c r="K11" s="10">
-        <f t="shared" si="0"/>
-        <v>-400</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="9" t="str" cm="1">
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7" t="str" cm="1">
         <f t="array" ref="D14">INDEX($B$4:$B$11, MATCH(MAX(INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(C14,C3:H3,0)),C3:H3,0))-INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(B14,C3:H3,0)),C3:H3,0))), INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(C14,C3:H3,0)),C3:H3,0))-INDEX(C4:H11,,MATCH(INDEX($C$3:$H$3,,MATCH(B14,C3:H3,0)),C3:H3,0)), 0))</f>
-        <v>Passport</v>
-      </c>
-      <c r="E14" s="10">
+        <v>Kingsize bed</v>
+      </c>
+      <c r="E14" s="8">
         <f>MAX(K4:K11)</f>
         <v>3000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>15</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f>E14*F14</f>
         <v>45000</v>
       </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="8"/>
+      <c r="K14" t="s">
+        <v>45</v>
+      </c>
+      <c r="L14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="L15">
+        <f>L14*L13</f>
+        <v>200000</v>
+      </c>
     </row>
     <row r="22" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G22" s="8"/>
+      <c r="G22" s="6"/>
     </row>
     <row r="23" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="G23" s="6"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="G24" s="6"/>
+      <c r="L24" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2842,142 +2913,150 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE4482B1-C188-486E-A804-43B4FA527C22}">
   <dimension ref="B2:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="23.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="I2" s="40"/>
+      <c r="J2" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="40"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <f>(C3*C5)+(D3*D5)</f>
-        <v>7870000000000</v>
-      </c>
-      <c r="C3" s="17">
+        <v>78700000000</v>
+      </c>
+      <c r="C3" s="15">
         <f>D3*2</f>
-        <v>200000000</v>
-      </c>
-      <c r="D3" s="17">
-        <f>ROUNDDOWN(E3/1.8091954/(43500),0)</f>
-        <v>100000000</v>
-      </c>
-      <c r="E3" s="18">
-        <v>7870000000000</v>
-      </c>
-      <c r="H3" s="23" t="s">
+        <v>2000000</v>
+      </c>
+      <c r="D3" s="15">
+        <f>ROUNDDOWN(E3/1.80919540229885/(43500),0)</f>
+        <v>1000000</v>
+      </c>
+      <c r="E3" s="16">
+        <v>78700000000</v>
+      </c>
+      <c r="H3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="24">
-        <f>78700/2310</f>
-        <v>34.069264069264072</v>
-      </c>
-      <c r="J3" s="24">
-        <f>(4000000-78700)/2310</f>
-        <v>1697.5324675324675</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="I3" s="22">
+        <f>78700/1870</f>
+        <v>42.085561497326204</v>
+      </c>
+      <c r="J3" s="22">
+        <f>(4000000-78700)/1870</f>
+        <v>2096.9518716577541</v>
+      </c>
+      <c r="K3" s="7"/>
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
+      <c r="H4" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="34">
+        <f>1870/78700</f>
+        <v>2.3761118170266837E-2</v>
+      </c>
+      <c r="J4" s="5"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="19">
+      <c r="C5" s="17">
         <v>17600</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="17">
         <v>43500</v>
       </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="35"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="35"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>63</v>
       </c>
+      <c r="E8" s="36"/>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <f>(C9*C11)+(D9*D11)</f>
-        <v>7870000</v>
-      </c>
-      <c r="C9" s="17">
+        <v>78700</v>
+      </c>
+      <c r="C9" s="15">
         <f>D9*2</f>
-        <v>200</v>
-      </c>
-      <c r="D9" s="20">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
       </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>65</v>
       </c>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>17600</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="17">
         <v>43500</v>
       </c>
       <c r="O11" s="3"/>
@@ -2989,28 +3068,28 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
-        <f>C15*105</f>
-        <v>462000</v>
-      </c>
-      <c r="C15" s="21">
+      <c r="B15" s="17">
+        <f>C15*85</f>
+        <v>1870</v>
+      </c>
+      <c r="C15" s="19">
         <f>D15*22</f>
-        <v>4400</v>
-      </c>
-      <c r="D15" s="22">
-        <v>200</v>
+        <v>22</v>
+      </c>
+      <c r="D15" s="20">
+        <v>1</v>
       </c>
       <c r="O15" s="3"/>
     </row>
